--- a/xlsx/珍珠港事件_intext.xlsx
+++ b/xlsx/珍珠港事件_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="924">
   <si>
     <t>珍珠港事件</t>
   </si>
@@ -29,7 +29,7 @@
     <t>第二次世界大战</t>
   </si>
   <si>
-    <t>政策_政策_美國_珍珠港事件</t>
+    <t>政策_政策_美国_珍珠港事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%98%E4%BA%89</t>
@@ -41,45 +41,42 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E7%B4%8D%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>亞利桑納號戰艦</t>
+    <t>亚利桑纳号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>夏威夷領地</t>
+    <t>夏威夷领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%83%A1%E5%B3%B6</t>
   </si>
   <si>
-    <t>歐胡島</t>
+    <t>欧胡岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF%E6%B5%B7%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>珍珠港海軍基地</t>
+    <t>珍珠港海军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E5%BF%83%E5%9C%8B</t>
   </si>
   <si>
-    <t>軸心國</t>
+    <t>轴心国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>太平洋戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
@@ -89,7 +86,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%96%AF%E6%9C%AC%C2%B7%E9%87%91%E6%A2%85%E7%88%BE</t>
   </si>
   <si>
-    <t>哈斯本·金梅爾</t>
+    <t>哈斯本·金梅尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9C%AC%E4%BA%94%E5%8D%81%E5%85%AD</t>
@@ -119,31 +116,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A1%E6%B4%8B%E8%89%A6</t>
   </si>
   <si>
-    <t>巡洋艦</t>
+    <t>巡洋舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%85%E9%80%90%E8%89%A6</t>
   </si>
   <si>
-    <t>驅逐艦</t>
+    <t>驱逐舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E8%89%87</t>
   </si>
   <si>
-    <t>潛艇</t>
+    <t>潜艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>航空母艦</t>
+    <t>航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%BB%8D%E5%85%A5%E4%BE%B5%E6%B3%95%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3</t>
   </si>
   <si>
-    <t>日軍入侵法屬印度支那</t>
+    <t>日军入侵法属印度支那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%A5%E4%BE%B5%E6%B3%B0%E5%9B%BD%E6%88%98%E4%BA%89</t>
@@ -155,49 +152,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>馬來亞戰役</t>
+    <t>马来亚战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%BF%9D%E8%A1%9B%E6%88%B0</t>
   </si>
   <si>
-    <t>香港保衛戰</t>
+    <t>香港保卫战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E6%88%B0%E5%BD%B9_(1941%E5%B9%B4%E2%80%931942%E5%B9%B4)</t>
   </si>
   <si>
-    <t>菲律賓戰役 (1941年–1942年)</t>
+    <t>菲律宾战役 (1941年–1942年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6%E6%88%B0%E5%BD%B9_(1941%E5%B9%B4)</t>
   </si>
   <si>
-    <t>關島戰役 (1941年)</t>
+    <t>关岛战役 (1941年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E5%8F%8A%E5%90%89%E7%88%BE%E4%BC%AF%E7%89%B9%E7%BE%A4%E5%B3%B6%E7%AA%81%E8%A5%B2</t>
   </si>
   <si>
-    <t>馬紹爾及吉爾伯特群島突襲</t>
+    <t>马绍尔及吉尔伯特群岛突袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%9D%B1%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>荷蘭東印度群島戰役</t>
+    <t>荷兰东印度群岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>新加坡戰役</t>
+    <t>新加坡战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B4%8B%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>印度洋空襲</t>
+    <t>印度洋空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%A2%AD%E4%B8%9C%E4%BA%AC</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%85%E9%96%80%E7%BE%A4%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>索羅門群島戰役</t>
+    <t>索罗门群岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7%E6%B5%B7%E6%88%98</t>
@@ -221,15 +218,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>第二次世界大戰太平洋戰區</t>
+    <t>第二次世界大战太平洋战区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%A5%B2%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>空襲東京</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/RY%E4%BD%9C%E6%88%98</t>
   </si>
   <si>
@@ -239,25 +233,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%95%99%E7%94%B3%E7%BE%A4%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>阿留申群島戰役</t>
+    <t>阿留申群岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E4%BC%AF%E7%89%B9%E5%8F%8A%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6%E6%88%B0%E4%BA%8B</t>
   </si>
   <si>
-    <t>吉爾伯特及馬紹爾群島戰事</t>
+    <t>吉尔伯特及马绍尔群岛战事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6%E5%8F%8A%E5%B8%9B%E7%90%89%E6%88%B0%E4%BA%8B</t>
   </si>
   <si>
-    <t>馬里亞納群島及帛琉戰事</t>
+    <t>马里亚纳群岛及帛琉战事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E7%A3%BA%E5%8F%8A%E7%90%89%E7%90%83%E7%BE%A4%E5%B3%B6%E6%88%B0%E4%BA%8B</t>
   </si>
   <si>
-    <t>硫磺及琉球群島戰事</t>
+    <t>硫磺及琉球群岛战事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E5%B0%94%E8%B5%9B%E6%9D%A1%E7%BA%A6</t>
@@ -269,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%97%A5%E8%80%B3%E6%9B%BC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>聖日耳曼條約</t>
+    <t>圣日耳曼条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E4%BA%9E%E8%BE%B2%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>特里亞農條約</t>
+    <t>特里亚农条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%B4%9B%E6%A2%9D%E7%B4%84_(1920%E5%B9%B4)</t>
   </si>
   <si>
-    <t>拉巴洛條約 (1920年)</t>
+    <t>拉巴洛条约 (1920年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%91%E7%BD%97%E9%A9%AC%E8%BF%9B%E5%86%9B</t>
@@ -311,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%A8%81%E6%96%AF%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>道威斯計劃</t>
+    <t>道威斯计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%8A%A0%E8%AF%BA%E5%85%AC%E7%BA%A6</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E5%85%AB%E4%BA%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>九一八事變</t>
+    <t>九一八事变</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adolf_Hitler%27s_rise_to_power</t>
@@ -359,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次義大利衣索比亞戰爭</t>
+    <t>第二次义大利衣索比亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%E8%98%AD%E9%87%8D%E8%BB%8D%E4%BA%8B%E5%8C%96</t>
   </si>
   <si>
-    <t>萊茵蘭重軍事化</t>
+    <t>莱茵兰重军事化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%86%85%E6%88%98</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%85%B1%E7%94%A2%E5%9C%8B%E9%9A%9B%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>反共產國際協定</t>
+    <t>反共产国际协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E4%B8%83%E4%BA%8B%E5%8F%98</t>
@@ -389,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%A5%A7%E5%90%88%E4%BD%B5</t>
   </si>
   <si>
-    <t>德奧合併</t>
+    <t>德奥合并</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>慕尼黑協定</t>
+    <t>慕尼黑协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%8F%B0%E5%BE%B7%E5%8D%80%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>蘇台德區問題</t>
+    <t>苏台德区问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1939%E5%B9%B4%E5%BE%B7%E5%9B%BD%E5%AF%B9%E7%AB%8B%E9%99%B6%E5%AE%9B%E7%9A%84%E6%9C%80%E5%90%8E%E9%80%9A%E7%89%92</t>
@@ -419,19 +413,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%85%A5%E4%BE%B5%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>義大利入侵阿爾巴尼亞</t>
+    <t>义大利入侵阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%96%80%E7%BD%95%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>諾門罕戰役</t>
+    <t>诺门罕战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E9%90%B5%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>鋼鐵條約</t>
+    <t>钢铁条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%BE%B7%E4%BA%92%E4%B8%8D%E4%BE%B5%E7%8A%AF%E6%9D%A1%E7%BA%A6</t>
@@ -443,25 +437,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>波蘭戰役</t>
+    <t>波兰战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E6%88%B0</t>
   </si>
   <si>
-    <t>假戰</t>
+    <t>假战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>法國戰役</t>
+    <t>法国战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E7%BE%85%E8%96%A9%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>巴巴羅薩行動</t>
+    <t>巴巴罗萨行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -479,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>美國時區</t>
+    <t>美国时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E8%A2%AD</t>
@@ -497,25 +491,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%8A%97%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>中國抗日戰爭</t>
+    <t>中国抗日战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%80%B2%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>南進政策</t>
+    <t>南进政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -539,37 +533,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>聯合艦隊</t>
+    <t>联合舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國太平洋艦隊</t>
+    <t>美国太平洋舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰機</t>
+    <t>战机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>戰艦</t>
+    <t>战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%89%E8%81%B7</t>
   </si>
   <si>
-    <t>殉職</t>
+    <t>殉职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E4%BA%A1</t>
   </si>
   <si>
-    <t>陣亡</t>
+    <t>阵亡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%98%E8%99%8F</t>
@@ -581,13 +575,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BF%E8%AB%96</t>
   </si>
   <si>
-    <t>輿論</t>
+    <t>舆论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
@@ -599,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B_(1861%E5%B9%B4%E2%80%931946%E5%B9%B4)</t>
   </si>
   <si>
-    <t>意大利王國 (1861年–1946年)</t>
+    <t>意大利王国 (1861年–1946年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%98%E6%AC%A7%E6%B4%B2%E6%88%98%E5%9C%BA</t>
@@ -623,19 +614,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>同盟國 (第二次世界大戰)</t>
+    <t>同盟国 (第二次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%81%A5%E6%BC%94%E8%AA%AA</t>
   </si>
   <si>
-    <t>國恥演說</t>
+    <t>国耻演说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B0%87</t>
   </si>
   <si>
-    <t>上將</t>
+    <t>上将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF</t>
@@ -647,31 +638,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%8A%97%E6%97%A5%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>中国抗日战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>國民政府</t>
+    <t>国民政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%97%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>中南半島</t>
+    <t>中南半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬來半島</t>
+    <t>马来半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -689,19 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
   </si>
   <si>
-    <t>荷兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/ABCD%E5%8C%85%E5%9C%8D%E7%B6%B2</t>
   </si>
   <si>
-    <t>ABCD包圍網</t>
+    <t>ABCD包围网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -719,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
+    <t>马绍尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>荷屬東印度</t>
+    <t>荷属东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E6%88%98%E4%BA%89</t>
@@ -749,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E8%98%AD%E6%89%98%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>塔蘭托戰役</t>
+    <t>塔兰托战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -767,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E7%80%A7%E6%B2%BB%E9%83%8E</t>
   </si>
   <si>
-    <t>大西瀧治郎</t>
+    <t>大西泷治郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E7%94%B0%E5%AE%9E</t>
@@ -779,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%8F%A3%E5%A4%9A%E8%81%9E</t>
   </si>
   <si>
-    <t>山口多聞</t>
+    <t>山口多闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E9%87%8E%E4%BF%AE%E8%BA%AB</t>
@@ -815,19 +797,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E5%85%92%E5%B3%B6%E7%81%A3</t>
   </si>
   <si>
-    <t>鹿兒島灣</t>
+    <t>鹿儿岛湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E6%A3%AE%E7%B8%A3</t>
   </si>
   <si>
-    <t>青森縣</t>
+    <t>青森县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%BE%A4%E9%A3%9B%E8%A1%8C%E5%A0%B4</t>
   </si>
   <si>
-    <t>三澤飛行場</t>
+    <t>三泽飞行场</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%B0%8F%E5%B7%9D%E5%8E%9F%E6%B9%96</t>
@@ -839,13 +821,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A2%96%E7%8F%8D%E6%BD%9B%E8%89%87</t>
   </si>
   <si>
-    <t>袖珍潛艇</t>
+    <t>袖珍潜艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC1%E8%88%AA%E7%A9%BA%E8%89%A6%E9%9A%8A_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>第1航空艦隊 (日本海軍)</t>
+    <t>第1航空舰队 (日本海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%B4%BA%E5%8F%B7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -857,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%BC%E9%BE%8D%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>蒼龍號航空母艦</t>
+    <t>苍龙号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E9%BE%8D%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>飛龍號航空母艦</t>
+    <t>飞龙号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%BF%A0%E4%B8%80</t>
@@ -875,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E9%B6%B4%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>瑞鶴號航空母艦</t>
+    <t>瑞鹤号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%94%E9%B9%A4%E5%8F%B7%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -893,37 +875,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B9%9D%E5%BC%8F%E8%89%A6%E4%B8%8A%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>九九式艦上轟炸機</t>
+    <t>九九式舰上轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%83%E5%BC%8F%E8%89%A6%E4%B8%8A%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>九七式艦上攻擊機</t>
+    <t>九七式舰上攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%B7%9D%E8%BB%8D%E4%B8%80</t>
   </si>
   <si>
-    <t>三川軍一</t>
+    <t>三川军一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%8F%A1%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>比叡號戰艦</t>
+    <t>比叡号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%A7%E5%B3%B6%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>霧島號戰艦</t>
+    <t>雾岛号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%A0%B9%E8%99%9F%E9%87%8D%E5%B7%A1%E6%B4%8B%E8%89%A6</t>
   </si>
   <si>
-    <t>利根號重巡洋艦</t>
+    <t>利根号重巡洋舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%91%E6%91%A9%E5%8F%B7%E9%87%8D%E5%B7%A1%E6%B4%8B%E8%88%B0</t>
@@ -935,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%AD%A6%E9%9A%88%E8%99%9F%E8%BC%95%E5%B7%A1%E6%B4%8B%E8%89%A6</t>
   </si>
   <si>
-    <t>阿武隈號輕巡洋艦</t>
+    <t>阿武隈号轻巡洋舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%B7%E9%A3%8E%E5%8F%B7%E9%A9%B1%E9%80%90%E8%88%B0</t>
@@ -947,19 +929,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A3%AF%E9%A2%A8%E8%99%9F%E9%A9%85%E9%80%90%E8%89%A6</t>
   </si>
   <si>
-    <t>磯風號驅逐艦</t>
+    <t>矶风号驱逐舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E7%82%8E%E8%99%9F%E9%A9%85%E9%80%90%E8%89%A6</t>
   </si>
   <si>
-    <t>陽炎號驅逐艦</t>
+    <t>阳炎号驱逐舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%9F%A5%E7%81%AB%E8%99%9F%E9%A9%85%E9%80%90%E8%89%A6</t>
   </si>
   <si>
-    <t>不知火號驅逐艦</t>
+    <t>不知火号驱逐舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8B%E4%BA%91%E5%8F%B7%E9%A9%B1%E9%80%90%E8%88%B0</t>
@@ -995,13 +977,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%87%E6%8D%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>擇捉島</t>
+    <t>择捉岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%86%A0%E7%81%A3</t>
   </si>
   <si>
-    <t>單冠灣</t>
+    <t>单冠湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E6%9D%91%E5%90%89%E4%B8%89%E9%83%8E</t>
@@ -1037,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E5%B1%B1</t>
@@ -1049,13 +1031,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%9E%A3%E7%BA%8F</t>
   </si>
   <si>
-    <t>宇垣纏</t>
+    <t>宇垣缠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%83%E9%9B%B7%E8%89%87</t>
   </si>
   <si>
-    <t>掃雷艇</t>
+    <t>扫雷艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%80%E9%A6%99%E5%B1%B1</t>
@@ -1067,49 +1049,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E6%9C%9B%E9%8F%A1</t>
   </si>
   <si>
-    <t>潛望鏡</t>
+    <t>潜望镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>加利福尼亞號戰艦</t>
+    <t>加利福尼亚号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%88%A9%E8%98%AD%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>馬利蘭號戰艦</t>
+    <t>马利兰号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>奧克拉荷馬號戰艦</t>
+    <t>奥克拉荷马号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>田納西號戰艦</t>
+    <t>田纳西号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>西維吉尼亞號戰艦</t>
+    <t>西维吉尼亚号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>內華達號戰艦</t>
+    <t>内华达号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>賓夕法尼亞號戰艦</t>
+    <t>宾夕法尼亚号战舰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ford_Island</t>
@@ -1121,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E7%8F%A0%E6%B8%AF-%E5%B8%8C%E5%8D%A1%E5%A7%86%E8%81%AF%E5%90%88%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>珍珠港-希卡姆聯合基地</t>
+    <t>珍珠港-希卡姆联合基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BF%E7%94%B2%E5%BC%B9</t>
@@ -1139,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E5%BC%8F%E9%AD%9A%E9%9B%B7</t>
   </si>
   <si>
-    <t>九一式魚雷</t>
+    <t>九一式鱼雷</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wheeler_Army_Airfield</t>
@@ -1151,7 +1133,7 @@
     <t>https://ja.wikipedia.org/wiki/%E9%AB%98%E6%A9%8B%E8%B5%AB%E4%B8%80</t>
   </si>
   <si>
-    <t>ja-高橋赫一</t>
+    <t>ja-高桥赫一</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%9D%BF%E5%8F%A4%E8%8C%82</t>
@@ -1175,31 +1157,31 @@
     <t>https://zh.wikipedia.org/wiki/B-17%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-17轟炸機</t>
+    <t>B-17轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-40%E6%88%B0%E9%B7%B9%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-40戰鷹戰鬥機</t>
+    <t>P-40战鹰战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/P-36%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>P-36戰鬥機</t>
+    <t>P-36战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>亞利桑那號戰艦</t>
+    <t>亚利桑那号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(CV-6)</t>
   </si>
   <si>
-    <t>企業號航空母艦 (CV-6)</t>
+    <t>企业号航空母舰 (CV-6)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%A6%E5%AF%9F%E6%9C%BA</t>
@@ -1217,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E8%99%9F%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>猶他號戰艦</t>
+    <t>犹他号战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%93%E6%92%88</t>
   </si>
   <si>
-    <t>打撈</t>
+    <t>打捞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%A3%E8%AA%89%E5%8B%8B%E7%AB%A0</t>
@@ -1235,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E5%8D%81%E5%AD%97%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>海軍十字勳章</t>
+    <t>海军十字勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E6%98%9F%E5%8B%8B%E7%AB%A0</t>
@@ -1259,13 +1241,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%89%A6%E5%B7%A8%E7%A0%B2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>大艦巨砲主義</t>
+    <t>大舰巨砲主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E8%89%B2%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>橙色計劃</t>
+    <t>橙色计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%9D%A1%E4%BB%B6%E6%8A%95%E9%99%8D</t>
@@ -1277,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>南方作戰</t>
+    <t>南方作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BD%97%E6%B4%B2</t>
@@ -1295,13 +1277,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>馬來亞海戰</t>
+    <t>马来亚海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
@@ -1313,13 +1295,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>纳粹德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B_(1861%E2%80%931946)</t>
   </si>
   <si>
-    <t>意大利王國 (1861–1946)</t>
+    <t>意大利王国 (1861–1946)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%BC%E6%89%98%C2%B7%E5%A2%A8%E7%B4%A2%E9%87%8C%E5%B0%BC</t>
@@ -1331,9 +1310,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%B4%E5%BF%83%E5%9B%BD</t>
   </si>
   <si>
-    <t>轴心国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
   </si>
   <si>
@@ -1349,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>烏拉山脈</t>
+    <t>乌拉山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%A2%AD</t>
@@ -1361,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -1379,13 +1355,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A%E9%9B%B7</t>
   </si>
   <si>
-    <t>魚雷</t>
+    <t>鱼雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%8B%98%E7%95%99</t>
   </si>
   <si>
-    <t>日裔美國人拘留</t>
+    <t>日裔美国人拘留</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Army_Pacific</t>
@@ -1409,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%82%E4%B8%96%E5%BF%A0%E9%AD%82</t>
   </si>
   <si>
-    <t>亂世忠魂</t>
+    <t>乱世忠魂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%8E%EF%BC%81%E8%99%8E%EF%BC%81%E8%99%8E%EF%BC%81</t>
@@ -1421,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%A7%E8%A1%80%E9%95%B7%E5%A4%A9</t>
   </si>
   <si>
-    <t>碧血長天</t>
+    <t>碧血长天</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%8D%E6%B5%B7%E9%A3%8E%E4%BA%91</t>
@@ -1433,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E9%81%A0%E7%9A%84%E9%9B%B6</t>
   </si>
   <si>
-    <t>永遠的零</t>
+    <t>永远的零</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%A3%E8%AA%89%E5%8B%8B%E7%AB%A0%EF%BC%9A%E5%8D%87%E9%98%B3</t>
@@ -1451,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界戰爭列表</t>
+    <t>世界战争列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roberts_Commission</t>
@@ -1463,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
   </si>
   <si>
-    <t>美國最高法院大法官</t>
+    <t>美国最高法院大法官</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Owen_Roberts</t>
@@ -1481,13 +1457,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%88%AA%E7%A9%BA%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國陸軍航空隊</t>
+    <t>美国陆军航空队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E7%89%B9%C2%B7%E8%98%AD%E9%87%91</t>
   </si>
   <si>
-    <t>珍妮特·蘭金</t>
+    <t>珍妮特·兰金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Hugo_Black</t>
@@ -1505,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A5%E9%A3%BC%E8%A1%8C%E5%8D%9A</t>
   </si>
   <si>
-    <t>鳥飼行博</t>
+    <t>鸟饲行博</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:World_War_II</t>
@@ -1517,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E7%9A%84%E8%B5%B7%E5%9B%A0</t>
   </si>
   <si>
-    <t>第二次世界大戰的起因</t>
+    <t>第二次世界大战的起因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98%E5%90%84%E5%9B%BD%E4%BC%A4%E4%BA%A1%E7%BB%9F%E8%AE%A1</t>
@@ -1529,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E6%88%B0%E5%BD%B9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>第二次世界大戰戰役列表</t>
+    <t>第二次世界大战战役列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98%E4%BC%9A%E8%AE%AE%E5%88%97%E8%A1%A8</t>
@@ -1541,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E5%90%84%E5%9C%8B%E6%8C%87%E6%8F%AE%E5%AE%98%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>第二次世界大戰各國指揮官列表</t>
+    <t>第二次世界大战各国指挥官列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98%E5%8F%82%E6%88%98%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -1553,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E5%90%8C%E7%9B%9F%E5%9C%8B%E9%A0%98%E8%A2%96</t>
   </si>
   <si>
-    <t>第二次世界大戰同盟國領袖</t>
+    <t>第二次世界大战同盟国领袖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Military_history_of_Australia_during_World_War_II</t>
@@ -1595,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0%E6%99%82%E6%9C%9F%E7%9A%84%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>二戰時期的菲律賓</t>
+    <t>二战时期的菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E5%85%B0%E6%88%98%E4%BA%89</t>
@@ -1625,9 +1601,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%8F%B0%E5%BE%B7%E5%8C%BA%E9%97%AE%E9%A2%98</t>
   </si>
   <si>
-    <t>苏台德区问题</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/German_occupation_of_Luxembourg_in_World_War_II</t>
   </si>
   <si>
@@ -1661,13 +1634,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E4%BA%BA%E6%B0%91%E8%A7%A3%E6%94%BE%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南斯拉夫人民解放戰爭</t>
+    <t>南斯拉夫人民解放战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%91%9F%E6%BC%94%E7%BF%92%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>威瑟演習作戰</t>
+    <t>威瑟演习作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%BE%B7%E6%88%98%E4%BA%89</t>
@@ -1679,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0%E6%9C%9F%E9%96%93%E7%9A%84%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>二戰期間的希臘</t>
+    <t>二战期间的希腊</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Military_history_of_New_Zealand_during_World_War_II</t>
@@ -1697,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E6%94%BB%E9%98%B2%E6%88%B0_(%E4%BA%8C%E6%88%B0)</t>
   </si>
   <si>
-    <t>義大利攻防戰 (二戰)</t>
+    <t>义大利攻防战 (二战)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/India_in_World_War_II</t>
@@ -1739,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E7%8D%A8%E7%AB%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>克羅埃西亞獨立國</t>
+    <t>克罗埃西亚独立国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Military_history_of_Finland_during_World_War_II</t>
@@ -1757,7 +1730,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>英國伊拉克戰爭</t>
+    <t>英国伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%A4%BE%E4%BC%9A%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1775,7 +1748,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E7%AC%AC%E4%BA%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>菲律賓第二共和國</t>
+    <t>菲律宾第二共和国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Romania_in_World_War_II</t>
@@ -1787,7 +1760,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%85%B1%E5%92%8C%E5%9C%8B_(1939%E5%B9%B4%EF%BC%8D1945%E5%B9%B4)</t>
   </si>
   <si>
-    <t>斯洛伐克共和國 (1939年－1945年)</t>
+    <t>斯洛伐克共和国 (1939年－1945年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98%E6%9C%9F%E9%97%B4%E7%9A%84%E6%B3%B0%E5%9B%BD</t>
@@ -1799,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%B8%8C%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>維希法國</t>
+    <t>维希法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98%E6%8A%B5%E6%8A%97%E8%BF%90%E5%8A%A8</t>
@@ -1853,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%95%B5%E5%BE%8C%E6%B8%B8%E6%93%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>中國敵後游擊隊</t>
+    <t>中国敌后游击队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italian_resistance_movement</t>
@@ -1871,7 +1844,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%85%89%E5%BE%A9%E8%BB%8D</t>
   </si>
   <si>
-    <t>韓國光復軍</t>
+    <t>韩国光复军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Latvian_anti-Nazi_resistance_movement_1941%E2%80%9345</t>
@@ -1931,13 +1904,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E5%8F%8D%E6%8A%97%E8%BB%8D</t>
   </si>
   <si>
-    <t>烏克蘭反抗軍</t>
+    <t>乌克兰反抗军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E7%8D%A8%E7%AB%8B%E5%90%8C%E7%9B%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>越南獨立同盟會</t>
+    <t>越南独立同盟会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98%E6%AC%A7%E6%B4%B2%E6%88%98%E5%9C%BA</t>
@@ -1961,61 +1934,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E6%B5%B7%E6%88%B0_(1939%E5%B9%B4%EF%BC%8D1945%E5%B9%B4)</t>
   </si>
   <si>
-    <t>大西洋海戰 (1939年－1945年)</t>
+    <t>大西洋海战 (1939年－1945年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>荷蘭戰役</t>
+    <t>荷兰战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>比利時戰役</t>
+    <t>比利时战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>不列顛戰役</t>
+    <t>不列颠战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E4%BD%94%E9%A0%98%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>蘇聯佔領波羅的海國家</t>
+    <t>苏联佔领波罗的海国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E7%BA%8C%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>繼續戰爭</t>
+    <t>继续战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BC%94%E6%88%B0%E5%BD%B9_(1941%E5%B9%B4)</t>
   </si>
   <si>
-    <t>基輔戰役 (1941年)</t>
+    <t>基辅战役 (1941年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%96%AF%E7%89%B9%E8%A6%81%E5%A1%9E%E4%BF%9D%E8%A1%9B%E6%88%B0</t>
   </si>
   <si>
-    <t>布列斯特要塞保衛戰</t>
+    <t>布列斯特要塞保卫战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A1%9E%E5%B0%BC%E8%89%BE%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>拉塞尼艾戰役</t>
+    <t>拉塞尼艾战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7%E6%A0%BC%E5%8B%92%E5%9C%8D%E5%9F%8E%E6%88%B0</t>
   </si>
   <si>
-    <t>列寧格勒圍城戰</t>
+    <t>列宁格勒围城战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%BA%9A%E6%B5%8E%E9%A9%AC%E5%B8%83%E8%89%AF%E6%96%AF%E5%85%8B%E6%88%98%E5%BD%B9</t>
@@ -2027,19 +2000,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>莫斯科戰役</t>
+    <t>莫斯科战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%93%A6%E6%96%AF%E6%89%98%E6%B3%A2%E7%88%BE%E5%9C%8D%E5%9F%8E%E6%88%B0_(1941%E5%B9%B4%E2%80%941942%E5%B9%B4)</t>
   </si>
   <si>
-    <t>塞瓦斯托波爾圍城戰 (1941年—1942年)</t>
+    <t>塞瓦斯托波尔围城战 (1941年—1942年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%89%B2%E6%96%B9%E6%A1%88</t>
   </si>
   <si>
-    <t>藍色方案</t>
+    <t>蓝色方案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97%E6%A0%BC%E5%8B%92%E6%88%98%E5%BD%B9</t>
@@ -2051,43 +2024,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E8%80%B6%E6%99%AE%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>迪耶普戰役</t>
+    <t>迪耶普战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E6%96%AF%E5%85%8B%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>庫爾斯克會戰</t>
+    <t>库尔斯克会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%91%A9%E6%A3%B1%E6%96%AF%E5%85%8B%E6%88%B0%E5%BD%B9_(1943%E5%B9%B4)</t>
   </si>
   <si>
-    <t>斯摩棱斯克戰役 (1943年)</t>
+    <t>斯摩棱斯克战役 (1943年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E7%AC%AC%E8%81%B6%E4%BC%AF%E6%B2%B3%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>下第聶伯河攻勢</t>
+    <t>下第聂伯河攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%88%BE%E7%93%A6%E6%88%B0%E5%BD%B9_(1944%E5%B9%B4)</t>
   </si>
   <si>
-    <t>納爾瓦戰役 (1944年)</t>
+    <t>纳尔瓦战役 (1944年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E9%81%9C-%E5%A5%91%E7%88%BE%E5%8D%A1%E5%A1%9E%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>科爾遜-契爾卡塞攻勢</t>
+    <t>科尔逊-契尔卡塞攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%90%9B%E4%B8%BB%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>大君主作戰</t>
+    <t>大君主作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E6%9B%BC%E5%BA%95%E6%88%98%E5%BD%B9</t>
@@ -2099,19 +2072,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E6%8B%89%E5%9F%BA%E6%98%82%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>巴格拉基昂行動</t>
+    <t>巴格拉基昂行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E8%83%BD%E5%A0%A1%E9%98%B2%E7%B7%9A%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>坦能堡防線戰役</t>
+    <t>坦能堡防线战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B2%83%E5%A4%AB-%E6%A1%91%E5%A4%9A%E6%A2%85%E6%97%A5%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>利沃夫-桑多梅日攻勢</t>
+    <t>利沃夫-桑多梅日攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99%E8%B5%B7%E4%B9%89</t>
@@ -2123,13 +2096,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E8%A5%BF-%E5%A5%87%E8%A5%BF%E7%91%99%E6%94%BB%E5%8B%A2_(1944%E5%B9%B48%E6%9C%88)</t>
   </si>
   <si>
-    <t>雅西-奇西瑙攻勢 (1944年8月)</t>
+    <t>雅西-奇西瑙攻势 (1944年8月)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E6%A0%BC%E5%8B%92%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>貝爾格勒攻勢</t>
+    <t>贝尔格勒攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%B7%B4%E9%BB%8E</t>
@@ -2141,13 +2114,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9F%E8%BB%8D%E7%94%B1%E5%B7%B4%E9%BB%8E%E5%88%B0%E8%90%8A%E8%8C%B5%E7%9A%84%E6%8E%A8%E9%80%B2</t>
   </si>
   <si>
-    <t>盟軍由巴黎到萊茵的推進</t>
+    <t>盟军由巴黎到莱茵的推进</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E8%8A%B1%E5%9C%92%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>市場花園行動</t>
+    <t>市场花园行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%87%BA%E9%83%A8%E4%B9%8B%E5%BD%B9</t>
@@ -2159,55 +2132,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%96%AF%E7%93%A6%E6%B2%B3-%E5%A5%A7%E5%BE%B7%E6%B2%B3%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>維斯瓦河-奧德河攻勢</t>
+    <t>维斯瓦河-奥德河攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>中歐會戰</t>
+    <t>中欧会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E9%A0%93%E6%B9%96%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>巴拉頓湖戰役</t>
+    <t>巴拉顿湖战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>柏林戰役</t>
+    <t>柏林战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>布拉格攻勢</t>
+    <t>布拉格攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%81%94%E4%BD%A9%E6%96%AF%E5%9C%8D%E5%9F%8E%E6%88%B0</t>
   </si>
   <si>
-    <t>布達佩斯圍城戰</t>
+    <t>布达佩斯围城战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E6%AD%90%E6%B4%B2%E6%88%B0%E5%A0%B4%E7%9A%84%E7%B5%90%E6%9D%9F</t>
   </si>
   <si>
-    <t>第二次世界大戰歐洲戰場的結束</t>
+    <t>第二次世界大战欧洲战场的结束</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%84%A1%E6%A2%9D%E4%BB%B6%E6%8A%95%E9%99%8D%E6%9B%B8</t>
   </si>
   <si>
-    <t>德國無條件投降書</t>
+    <t>德国无条件投降书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E5%9C%B0%E4%B8%AD%E6%B5%B7%E3%80%81%E4%B8%AD%E6%9D%B1%E5%8F%8A%E9%9D%9E%E6%B4%B2%E6%88%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>第二次世界大戰地中海、中東及非洲戰場</t>
+    <t>第二次世界大战地中海、中东及非洲战场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E6%B2%99%E6%BC%A0%E6%88%98%E5%BD%B9</t>
@@ -2219,43 +2192,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A1%94%E6%BD%98%E8%A7%92%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>馬塔潘角海戰</t>
+    <t>马塔潘角海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%84%8F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>希意戰爭</t>
+    <t>希意战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%9B%A4%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>羅盤行動</t>
+    <t>罗盘行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>入侵南斯拉夫之戰</t>
+    <t>入侵南斯拉夫之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E6%88%B0%E7%B7%9A</t>
   </si>
   <si>
-    <t>南斯拉夫戰線</t>
+    <t>南斯拉夫战线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>希臘戰役</t>
+    <t>希腊战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>克里特島戰役</t>
+    <t>克里特岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%8B%8F%E5%85%A5%E4%BE%B5%E4%BC%8A%E6%9C%97</t>
@@ -2267,7 +2240,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%9F%A5%E6%8B%89%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>加查拉戰役</t>
+    <t>加查拉战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%98%BF%E6%8B%89%E6%9B%BC%E6%88%98%E5%BD%B9</t>
@@ -2279,49 +2252,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%82%AC%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>火炬行動</t>
+    <t>火炬行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>突尼西亞戰役</t>
+    <t>突尼西亚战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>西西里島戰役</t>
+    <t>西西里岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>入侵義大利</t>
+    <t>入侵义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%A5%BF%E8%AB%BE%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>卡西諾戰役</t>
+    <t>卡西诺战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B5%9D%E5%8D%B5%E7%9F%B3%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>鵝卵石行動</t>
+    <t>鹅卵石行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%BE%B7%E9%98%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>哥德防線</t>
+    <t>哥德防线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1945%E5%B9%B4%E6%98%A5%E5%A4%A9%E7%9B%9F%E8%BB%8D%E5%9C%A8%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%9A%84%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>1945年春天盟軍在義大利的攻勢</t>
+    <t>1945年春天盟军在义大利的攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98%E4%B8%9C%E5%8D%97%E4%BA%9A%E6%88%98%E5%8C%BA</t>
@@ -2333,7 +2306,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%9E%E6%BB%AC%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>淞滬會戰</t>
+    <t>淞沪会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E5%B7%9E%E4%BC%9A%E6%88%98</t>
@@ -2363,7 +2336,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%B3%B0%E6%B3%95%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次泰法戰爭</t>
+    <t>第二次泰法战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%95%BF%E6%B2%99%E6%88%98%E5%BD%B9</t>
@@ -2375,7 +2348,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>緬甸戰役</t>
+    <t>缅甸战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E9%95%BF%E6%B2%99%E4%BC%9A%E6%88%98</t>
@@ -2387,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E9%81%94%E5%B0%8F%E5%BE%91%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>科科達小徑戰役</t>
+    <t>科科达小径战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B2%9B%E6%B5%B7%E6%88%98</t>
@@ -2399,7 +2372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E7%88%BE%E5%8D%A1%E7%B4%8D%E7%88%BE%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>瓜達爾卡納爾島戰役</t>
+    <t>瓜达尔卡纳尔岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B8%95%E5%B0%94%E6%88%98%E5%BD%B9</t>
@@ -2411,7 +2384,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%9F%E7%82%B8%E6%8B%89%E5%8C%85%E7%88%BE_(1943%E5%B9%B411%E6%9C%88)</t>
   </si>
   <si>
-    <t>轟炸拉包爾 (1943年11月)</t>
+    <t>轰炸拉包尔 (1943年11月)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E5%BE%B7%E4%BC%9A%E6%88%98</t>
@@ -2429,13 +2402,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E6%B5%B7%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>菲律賓海海戰</t>
+    <t>菲律宾海海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%BC%8A%E6%B3%B0%E7%81%A3%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>雷伊泰灣海戰</t>
+    <t>雷伊泰湾海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E9%AB%98%E6%B5%B7%E5%B3%A1%E6%B5%B7%E6%88%98</t>
@@ -2453,7 +2426,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E6%88%B0%E5%BD%B9_(1944%E5%B9%B4%E8%87%B31945%E5%B9%B4)</t>
   </si>
   <si>
-    <t>菲律賓戰役 (1944年至1945年)</t>
+    <t>菲律宾战役 (1944年至1945年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E7%A3%BA%E5%B2%9B%E6%88%98%E5%BD%B9</t>
@@ -2465,7 +2438,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>沖繩島戰役</t>
+    <t>冲绳岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E8%A5%BF%E4%BC%9A%E6%88%98</t>
@@ -2483,31 +2456,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B0%BC%E6%8B%89%E6%88%B0%E5%BD%B9_(1945%E5%B9%B4)</t>
   </si>
   <si>
-    <t>馬尼拉戰役 (1945年)</t>
+    <t>马尼拉战役 (1945年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BE%85%E6%B4%B2%E6%88%B0%E5%BD%B9_(1945%E5%B9%B4)</t>
   </si>
   <si>
-    <t>婆羅洲戰役 (1945年)</t>
+    <t>婆罗洲战役 (1945年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6%E8%88%87%E9%95%B7%E5%B4%8E%E5%8E%9F%E5%AD%90%E5%BD%88%E7%88%86%E7%82%B8</t>
   </si>
   <si>
-    <t>廣島與長崎原子彈爆炸</t>
+    <t>广岛与长崎原子弹爆炸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>蘇日戰爭</t>
+    <t>苏日战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B3%B6%E7%BE%A4%E5%B3%B6%E7%99%BB%E9%99%B8%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>千島群島登陸行動</t>
+    <t>千岛群岛登陆行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%8A%95%E9%99%8D</t>
@@ -2525,7 +2498,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E4%B8%AD%E7%9A%84%E7%A9%BA%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰中的空戰</t>
+    <t>第二次世界大战中的空战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%AA%E7%94%B5%E6%88%98</t>
@@ -2537,7 +2510,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0%E5%90%84%E5%9C%8B%E8%BB%8D%E9%8A%9C</t>
   </si>
   <si>
-    <t>二戰各國軍銜</t>
+    <t>二战各国军衔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/World_War_II_cryptography</t>
@@ -2567,7 +2540,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E4%B8%AD%E7%9A%84%E8%BB%8D%E4%BA%8B%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>第二次世界大戰中的軍事勳章</t>
+    <t>第二次世界大战中的军事勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98%E6%AD%A6%E5%99%A8%E8%A3%85%E5%A4%87%E5%88%97%E8%A1%A8</t>
@@ -2603,7 +2576,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0%E6%9C%9F%E9%96%93%E7%9A%84%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8</t>
   </si>
   <si>
-    <t>二戰期間的戰略轟炸</t>
+    <t>二战期间的战略轰炸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1943%E5%B9%B4%E5%AD%9F%E5%8A%A0%E6%8B%89%E9%A5%A5%E8%8D%92</t>
@@ -2621,7 +2594,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AE%96%E6%B0%91%E5%8C%96</t>
@@ -2657,19 +2630,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E8%BB%8D%E4%BA%8B%E4%BD%94%E9%A0%98%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>同盟國軍事佔領德國</t>
+    <t>同盟国军事佔领德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E8%BB%8D%E4%BA%8B%E4%BD%94%E9%A0%98%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>同盟國軍事佔領奧地利</t>
+    <t>同盟国军事佔领奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%BE%B7%E6%B2%B3-%E5%B0%BC%E6%96%AF%E6%B2%B3%E7%B7%9A</t>
   </si>
   <si>
-    <t>奧德河-尼斯河線</t>
+    <t>奥德河-尼斯河线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%86%85%E6%88%98</t>
@@ -2687,7 +2660,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E8%BB%8D%E4%BA%8B%E4%BD%94%E9%A0%98%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
-    <t>同盟國軍事佔領日本</t>
+    <t>同盟国军事佔领日本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
@@ -2705,7 +2678,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第一次印度支那戰爭</t>
+    <t>第一次印度支那战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%8B%AC%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
@@ -2717,7 +2690,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AE%98%E7%95%99%E6%97%A5%E6%9C%AC%E5%85%B5</t>
   </si>
   <si>
-    <t>殘留日本兵</t>
+    <t>残留日本兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E7%BD%AA</t>
@@ -2753,7 +2726,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>猶太人大屠殺</t>
+    <t>犹太人大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E4%BC%A6%E5%A0%A1%E5%AE%A1%E5%88%A4</t>
@@ -2771,7 +2744,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>南京大屠殺</t>
+    <t>南京大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/731%E9%83%A8%E9%98%9F</t>
@@ -2807,7 +2780,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3445,7 +3418,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -3471,10 +3444,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -3500,10 +3473,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -3529,10 +3502,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>7</v>
@@ -3558,10 +3531,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -3587,10 +3560,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -3616,10 +3589,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -3645,10 +3618,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>11</v>
@@ -3674,10 +3647,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>12</v>
@@ -3703,10 +3676,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -3732,10 +3705,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>21</v>
@@ -3764,10 +3737,10 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -3790,10 +3763,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -3819,10 +3792,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -3848,10 +3821,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -3877,10 +3850,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -3906,10 +3879,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>11</v>
@@ -3935,10 +3908,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -3964,10 +3937,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -3993,10 +3966,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -4022,10 +3995,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -4051,10 +4024,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -4080,10 +4053,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -4109,10 +4082,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -4138,10 +4111,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -4167,10 +4140,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -4196,10 +4169,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -4225,10 +4198,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -4254,10 +4227,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -4283,10 +4256,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -4312,10 +4285,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -4341,10 +4314,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4399,10 +4372,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4428,10 +4401,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4457,10 +4430,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4486,10 +4459,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4515,10 +4488,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4544,10 +4517,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4573,10 +4546,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4602,10 +4575,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4631,10 +4604,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4660,10 +4633,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4689,10 +4662,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -4718,10 +4691,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4747,10 +4720,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4776,10 +4749,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4805,10 +4778,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4834,10 +4807,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4863,10 +4836,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4892,10 +4865,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4921,10 +4894,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4950,10 +4923,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4979,10 +4952,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5008,10 +4981,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5037,10 +5010,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5066,10 +5039,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5095,10 +5068,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5124,10 +5097,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5153,10 +5126,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5182,10 +5155,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5211,10 +5184,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5240,10 +5213,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5269,10 +5242,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -5298,10 +5271,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -5327,10 +5300,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -5356,10 +5329,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -5385,10 +5358,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>85</v>
@@ -5414,10 +5387,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -5443,10 +5416,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5472,10 +5445,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -5501,10 +5474,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -5530,10 +5503,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5559,10 +5532,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5588,10 +5561,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -5617,10 +5590,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>8</v>
@@ -5646,10 +5619,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>5</v>
@@ -5675,10 +5648,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5704,10 +5677,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -5733,10 +5706,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -5762,10 +5735,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>13</v>
@@ -5791,10 +5764,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>6</v>
@@ -5820,10 +5793,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>36</v>
@@ -5849,10 +5822,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5878,10 +5851,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>10</v>
@@ -5907,10 +5880,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -5936,10 +5909,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -5965,10 +5938,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5994,10 +5967,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6023,10 +5996,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>10</v>
@@ -6052,10 +6025,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -6081,10 +6054,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6110,10 +6083,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6139,10 +6112,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6168,10 +6141,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6197,10 +6170,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -6226,10 +6199,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G106" t="n">
         <v>88</v>
@@ -6255,10 +6228,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6284,10 +6257,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6313,10 +6286,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -6342,10 +6315,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>5</v>
@@ -6371,10 +6344,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -6429,10 +6402,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>7</v>
@@ -6458,10 +6431,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -6487,10 +6460,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -6516,10 +6489,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -6545,10 +6518,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6574,10 +6547,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F118" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G118" t="n">
         <v>7</v>
@@ -6603,10 +6576,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -6632,10 +6605,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -6661,10 +6634,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -6690,10 +6663,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6719,10 +6692,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6748,10 +6721,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6777,10 +6750,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6806,10 +6779,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6835,10 +6808,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>21</v>
@@ -6864,10 +6837,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6893,10 +6866,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6922,10 +6895,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -6951,10 +6924,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -6980,10 +6953,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7009,10 +6982,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -7038,10 +7011,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>9</v>
@@ -7067,10 +7040,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>12</v>
@@ -7096,10 +7069,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7125,10 +7098,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7154,10 +7127,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7183,10 +7156,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7212,10 +7185,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -7241,10 +7214,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" t="s">
         <v>27</v>
-      </c>
-      <c r="F141" t="s">
-        <v>28</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7270,10 +7243,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>8</v>
@@ -7299,10 +7272,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7328,10 +7301,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F144" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7357,10 +7330,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7386,10 +7359,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7415,10 +7388,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7444,10 +7417,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7473,10 +7446,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7502,10 +7475,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7531,10 +7504,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>5</v>
@@ -7560,10 +7533,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7589,10 +7562,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7618,10 +7591,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7647,10 +7620,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7676,10 +7649,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7705,10 +7678,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7734,10 +7707,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7763,10 +7736,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7792,10 +7765,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7821,10 +7794,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7850,10 +7823,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7879,10 +7852,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7908,10 +7881,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7937,10 +7910,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7966,10 +7939,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7995,10 +7968,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8024,10 +7997,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8053,10 +8026,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8082,10 +8055,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -8111,10 +8084,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F171" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G171" t="n">
         <v>6</v>
@@ -8140,10 +8113,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8169,10 +8142,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8198,10 +8171,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8227,10 +8200,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8256,10 +8229,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8285,10 +8258,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8314,10 +8287,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8343,10 +8316,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8372,10 +8345,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8401,10 +8374,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -8430,10 +8403,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8459,10 +8432,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8488,10 +8461,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8517,10 +8490,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8546,10 +8519,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8575,10 +8548,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8633,10 +8606,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8662,10 +8635,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8691,10 +8664,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8720,10 +8693,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>4</v>
@@ -8749,10 +8722,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F193" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8778,10 +8751,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8807,10 +8780,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8836,10 +8809,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8865,10 +8838,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8894,10 +8867,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F198" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8923,10 +8896,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8952,10 +8925,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8981,10 +8954,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9010,10 +8983,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -9039,10 +9012,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -9068,10 +9041,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9097,10 +9070,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9126,10 +9099,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9155,10 +9128,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9184,10 +9157,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9213,10 +9186,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9242,10 +9215,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9271,10 +9244,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F211" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -9300,10 +9273,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9329,10 +9302,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G213" t="n">
         <v>4</v>
@@ -9358,10 +9331,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9387,10 +9360,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9416,10 +9389,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F216" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9445,10 +9418,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F217" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9474,10 +9447,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9503,10 +9476,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F219" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9532,10 +9505,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9561,10 +9534,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9590,10 +9563,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9619,10 +9592,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9648,10 +9621,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G224" t="n">
         <v>5</v>
@@ -9677,10 +9650,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>48</v>
+      </c>
+      <c r="F225" t="s">
         <v>49</v>
-      </c>
-      <c r="F225" t="s">
-        <v>50</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9706,10 +9679,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>44</v>
+      </c>
+      <c r="F226" t="s">
         <v>45</v>
-      </c>
-      <c r="F226" t="s">
-        <v>46</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9735,10 +9708,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>54</v>
+      </c>
+      <c r="F227" t="s">
         <v>55</v>
-      </c>
-      <c r="F227" t="s">
-        <v>56</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9764,10 +9737,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>50</v>
+      </c>
+      <c r="F228" t="s">
         <v>51</v>
-      </c>
-      <c r="F228" t="s">
-        <v>52</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9793,10 +9766,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F229" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9822,10 +9795,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>46</v>
+      </c>
+      <c r="F230" t="s">
         <v>47</v>
-      </c>
-      <c r="F230" t="s">
-        <v>48</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9851,10 +9824,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F231" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9880,10 +9853,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F232" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9909,10 +9882,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F233" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9938,10 +9911,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>58</v>
+      </c>
+      <c r="F234" t="s">
         <v>59</v>
-      </c>
-      <c r="F234" t="s">
-        <v>60</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9967,10 +9940,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F235" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9996,10 +9969,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F236" t="s">
-        <v>432</v>
+        <v>191</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10025,10 +9998,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F237" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10054,10 +10027,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F238" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10083,10 +10056,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F239" t="s">
-        <v>438</v>
+        <v>18</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10112,10 +10085,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F240" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10141,10 +10114,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F241" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10170,10 +10143,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F242" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10199,10 +10172,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F243" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G243" t="n">
         <v>7</v>
@@ -10228,10 +10201,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F244" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10257,10 +10230,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F245" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10286,10 +10259,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F246" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10315,10 +10288,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F247" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10344,10 +10317,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F248" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G248" t="n">
         <v>5</v>
@@ -10373,10 +10346,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F249" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G249" t="n">
         <v>20</v>
@@ -10402,10 +10375,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F250" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -10431,10 +10404,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>22</v>
+      </c>
+      <c r="F251" t="s">
         <v>23</v>
-      </c>
-      <c r="F251" t="s">
-        <v>24</v>
       </c>
       <c r="G251" t="n">
         <v>6</v>
@@ -10460,10 +10433,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F252" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10489,10 +10462,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F253" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10518,10 +10491,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F254" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -10547,10 +10520,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F255" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10576,10 +10549,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F256" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10605,10 +10578,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F257" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10634,10 +10607,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F258" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10663,10 +10636,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F259" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10692,10 +10665,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F260" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10721,10 +10694,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F261" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10750,10 +10723,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F262" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10779,10 +10752,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F263" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10808,10 +10781,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F264" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10837,10 +10810,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F265" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10866,10 +10839,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F266" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10895,10 +10868,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F267" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10924,10 +10897,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F268" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10953,10 +10926,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F269" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10982,10 +10955,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F270" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11011,10 +10984,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F271" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11040,10 +11013,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F272" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11069,10 +11042,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F273" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11098,10 +11071,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F274" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G274" t="n">
         <v>9</v>
@@ -11127,10 +11100,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F275" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11156,10 +11129,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F276" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G276" t="n">
         <v>7</v>
@@ -11185,10 +11158,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F277" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G277" t="n">
         <v>38</v>
@@ -11214,10 +11187,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F278" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11243,10 +11216,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F279" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11272,10 +11245,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F280" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11301,10 +11274,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F281" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -11330,10 +11303,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F282" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11359,10 +11332,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F283" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -11388,10 +11361,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F284" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11417,10 +11390,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F285" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11446,10 +11419,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F286" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11475,10 +11448,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F287" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11504,10 +11477,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F288" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11533,10 +11506,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F289" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11562,13 +11535,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F290" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11591,13 +11564,13 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F291" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11620,10 +11593,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F292" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11649,10 +11622,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F293" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11678,10 +11651,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F294" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11707,10 +11680,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F295" t="s">
-        <v>536</v>
+        <v>126</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11736,10 +11709,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F296" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11765,10 +11738,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F297" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11794,10 +11767,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F298" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11823,10 +11796,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F299" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11852,10 +11825,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F300" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11881,10 +11854,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F301" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G301" t="n">
         <v>4</v>
@@ -11910,10 +11883,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F302" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11939,10 +11912,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F303" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11968,10 +11941,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F304" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G304" t="n">
         <v>3</v>
@@ -11997,10 +11970,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F305" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12026,10 +11999,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F306" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12055,10 +12028,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F307" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G307" t="n">
         <v>13</v>
@@ -12084,10 +12057,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F308" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12113,10 +12086,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F309" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12142,10 +12115,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F310" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
@@ -12171,13 +12144,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F311" t="s">
-        <v>438</v>
+        <v>18</v>
       </c>
       <c r="G311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12200,10 +12173,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F312" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G312" t="n">
         <v>6</v>
@@ -12229,10 +12202,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F313" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12258,10 +12231,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F314" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12287,10 +12260,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F315" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12316,10 +12289,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F316" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12345,10 +12318,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F317" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12374,10 +12347,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F318" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12403,10 +12376,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F319" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G319" t="n">
         <v>16</v>
@@ -12432,10 +12405,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F320" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12461,10 +12434,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F321" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G321" t="n">
         <v>5</v>
@@ -12490,10 +12463,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F322" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12519,13 +12492,13 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F323" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12548,10 +12521,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F324" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12577,10 +12550,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F325" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -12606,10 +12579,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F326" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12635,10 +12608,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F327" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G327" t="n">
         <v>3</v>
@@ -12664,10 +12637,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F328" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12693,10 +12666,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F329" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12722,10 +12695,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F330" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12751,10 +12724,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F331" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12780,10 +12753,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F332" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12809,10 +12782,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F333" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12838,10 +12811,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F334" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12867,10 +12840,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F335" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12896,10 +12869,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F336" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12925,10 +12898,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F337" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G337" t="n">
         <v>7</v>
@@ -12954,10 +12927,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F338" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12983,10 +12956,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F339" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13012,10 +12985,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F340" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13041,10 +13014,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F341" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13070,10 +13043,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F342" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13099,10 +13072,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F343" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13128,10 +13101,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F344" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13157,10 +13130,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F345" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13186,10 +13159,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F346" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13215,10 +13188,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F347" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13244,10 +13217,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F348" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13273,10 +13246,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F349" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13302,10 +13275,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F350" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13331,10 +13304,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F351" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13360,10 +13333,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F352" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G352" t="n">
         <v>6</v>
@@ -13389,10 +13362,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F353" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13418,10 +13391,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F354" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13447,10 +13420,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F355" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13476,10 +13449,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F356" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13505,10 +13478,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F357" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13534,10 +13507,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F358" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13563,10 +13536,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F359" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13592,10 +13565,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F360" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13621,10 +13594,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F361" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13650,10 +13623,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F362" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13679,10 +13652,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F363" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13708,10 +13681,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F364" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13737,10 +13710,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F365" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13766,10 +13739,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F366" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13795,10 +13768,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F367" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13824,10 +13797,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F368" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13853,10 +13826,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F369" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13882,10 +13855,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F370" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13911,10 +13884,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F371" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13940,10 +13913,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F372" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13969,10 +13942,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F373" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13998,10 +13971,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F374" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14027,10 +14000,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F375" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14056,10 +14029,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F376" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14085,10 +14058,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F377" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14114,10 +14087,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F378" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14143,10 +14116,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F379" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14172,10 +14145,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F380" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14201,10 +14174,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F381" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14230,10 +14203,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F382" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14259,10 +14232,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F383" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14288,10 +14261,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F384" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14317,10 +14290,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F385" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14346,10 +14319,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F386" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14375,10 +14348,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F387" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14404,10 +14377,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F388" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14433,10 +14406,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F389" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14462,10 +14435,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F390" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14491,10 +14464,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F391" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14520,10 +14493,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F392" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14549,10 +14522,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F393" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14578,10 +14551,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F394" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14607,10 +14580,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F395" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14636,10 +14609,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F396" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14665,10 +14638,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F397" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14694,10 +14667,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F398" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -14723,10 +14696,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F399" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14752,10 +14725,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F400" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14781,10 +14754,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F401" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14810,10 +14783,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F402" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14839,10 +14812,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F403" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14868,10 +14841,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F404" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14897,10 +14870,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="F405" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14926,10 +14899,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="F406" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14955,10 +14928,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F407" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14984,10 +14957,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F408" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15013,10 +14986,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="F409" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15042,10 +15015,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F410" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15071,10 +15044,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F411" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15100,10 +15073,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F412" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15129,10 +15102,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F413" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15158,10 +15131,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F414" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15187,10 +15160,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="F415" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15216,10 +15189,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="F416" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15245,10 +15218,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="F417" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15274,10 +15247,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F418" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15303,10 +15276,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F419" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15332,10 +15305,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F420" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15361,10 +15334,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F421" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15390,10 +15363,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F422" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15419,10 +15392,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F423" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G423" t="n">
         <v>4</v>
@@ -15477,10 +15450,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F425" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15506,10 +15479,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F426" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15535,10 +15508,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F427" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15564,10 +15537,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F428" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15593,10 +15566,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F429" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15622,10 +15595,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F430" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15651,10 +15624,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F431" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15680,10 +15653,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
+        <v>40</v>
+      </c>
+      <c r="F432" t="s">
         <v>41</v>
-      </c>
-      <c r="F432" t="s">
-        <v>42</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15709,10 +15682,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
+        <v>46</v>
+      </c>
+      <c r="F433" t="s">
         <v>47</v>
-      </c>
-      <c r="F433" t="s">
-        <v>48</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15738,10 +15711,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
+        <v>48</v>
+      </c>
+      <c r="F434" t="s">
         <v>49</v>
-      </c>
-      <c r="F434" t="s">
-        <v>50</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15767,10 +15740,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F435" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15796,10 +15769,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
+        <v>44</v>
+      </c>
+      <c r="F436" t="s">
         <v>45</v>
-      </c>
-      <c r="F436" t="s">
-        <v>46</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15825,10 +15798,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F437" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -15854,10 +15827,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F438" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15883,10 +15856,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
+        <v>58</v>
+      </c>
+      <c r="F439" t="s">
         <v>59</v>
-      </c>
-      <c r="F439" t="s">
-        <v>60</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15912,10 +15885,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
+        <v>64</v>
+      </c>
+      <c r="F440" t="s">
         <v>65</v>
-      </c>
-      <c r="F440" t="s">
-        <v>66</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15941,10 +15914,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F441" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15970,10 +15943,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F442" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15999,10 +15972,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F443" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16028,10 +16001,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F444" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16057,10 +16030,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F445" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16086,10 +16059,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F446" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16115,10 +16088,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F447" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16144,10 +16117,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F448" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16173,10 +16146,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F449" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16202,10 +16175,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F450" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16231,10 +16204,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F451" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16260,10 +16233,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F452" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16289,10 +16262,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F453" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16318,10 +16291,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F454" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16347,10 +16320,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F455" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16376,10 +16349,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F456" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16405,10 +16378,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F457" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16434,10 +16407,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F458" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16463,10 +16436,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F459" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16492,10 +16465,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F460" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16521,10 +16494,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F461" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16550,10 +16523,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F462" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16579,10 +16552,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F463" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16608,10 +16581,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F464" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16637,10 +16610,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F465" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16666,10 +16639,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F466" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16695,10 +16668,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F467" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16724,10 +16697,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="F468" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16753,10 +16726,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F469" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16782,10 +16755,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F470" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16811,10 +16784,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="F471" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16840,10 +16813,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F472" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16869,10 +16842,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F473" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16898,10 +16871,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F474" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16927,10 +16900,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="F475" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -16956,10 +16929,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F476" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16985,10 +16958,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="F477" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17014,10 +16987,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F478" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17043,10 +17016,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="F479" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17072,10 +17045,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F480" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17101,10 +17074,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="F481" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17130,10 +17103,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="F482" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17159,10 +17132,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="F483" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17188,10 +17161,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="F484" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17217,10 +17190,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="F485" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17246,10 +17219,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="F486" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17275,10 +17248,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="F487" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17304,10 +17277,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="F488" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17333,10 +17306,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="F489" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17362,10 +17335,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F490" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17391,10 +17364,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="F491" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17420,10 +17393,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="F492" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17449,10 +17422,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="F493" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17478,10 +17451,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="F494" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17507,10 +17480,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="F495" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17536,10 +17509,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="F496" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17565,10 +17538,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="F497" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17594,10 +17567,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="F498" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17623,10 +17596,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="F499" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17652,10 +17625,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="F500" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17681,10 +17654,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="F501" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17710,10 +17683,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="F502" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17739,10 +17712,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="F503" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17768,10 +17741,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="F504" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -17797,10 +17770,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="F505" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -17826,10 +17799,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="F506" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -17855,10 +17828,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="F507" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -17884,10 +17857,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="F508" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -17913,10 +17886,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="F509" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -17942,10 +17915,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="F510" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -17971,10 +17944,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="F511" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18000,10 +17973,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="F512" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="G512" t="n">
         <v>74</v>
@@ -18029,10 +18002,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="F513" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="G513" t="n">
         <v>3</v>
@@ -18058,10 +18031,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="F514" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>

--- a/xlsx/珍珠港事件_intext.xlsx
+++ b/xlsx/珍珠港事件_intext.xlsx
@@ -29,7 +29,7 @@
     <t>第二次世界大战</t>
   </si>
   <si>
-    <t>政策_政策_美國_珍珠港事件</t>
+    <t>体育运动_体育运动_纳粹德国_珍珠港事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%98%E4%BA%89</t>
